--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>4800</v>
+        <v>6200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -874,9 +874,15 @@
       <c r="E3" s="1">
         <v>31</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="3">
+        <v>45314</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
         <v>61</v>
       </c>
@@ -1630,9 +1636,15 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="3">
+        <v>45305</v>
+      </c>
+      <c r="C27" s="4">
+        <v>200</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1">
         <v>55</v>
       </c>
@@ -1656,9 +1668,15 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C28" s="4">
+        <v>200</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1">
         <v>56</v>
       </c>
@@ -1682,9 +1700,15 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C29" s="4">
+        <v>200</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
       <c r="E29" s="1">
         <v>57</v>
       </c>
@@ -1708,9 +1732,15 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C30" s="4">
+        <v>200</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
       <c r="E30" s="1">
         <v>58</v>
       </c>
@@ -1734,9 +1764,15 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="3">
+        <v>45309</v>
+      </c>
+      <c r="C31" s="4">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
       <c r="E31" s="1">
         <v>59</v>
       </c>
@@ -1760,9 +1796,15 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C32" s="4">
+        <v>200</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
       <c r="E32" s="1">
         <v>60</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -912,9 +912,15 @@
       <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="3">
+        <v>45315</v>
+      </c>
+      <c r="G4" s="4">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1">
         <v>62</v>
       </c>
@@ -944,9 +950,15 @@
       <c r="E5" s="1">
         <v>33</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="3">
+        <v>45316</v>
+      </c>
+      <c r="G5" s="4">
+        <v>200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1">
         <v>63</v>
       </c>
@@ -976,9 +988,15 @@
       <c r="E6" s="1">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="3">
+        <v>45317</v>
+      </c>
+      <c r="G6" s="4">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <v>64</v>
       </c>
@@ -1008,9 +1026,15 @@
       <c r="E7" s="1">
         <v>35</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="3">
+        <v>45318</v>
+      </c>
+      <c r="G7" s="4">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1">
         <v>65</v>
       </c>
@@ -1040,9 +1064,15 @@
       <c r="E8" s="1">
         <v>36</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="3">
+        <v>45319</v>
+      </c>
+      <c r="G8" s="4">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1">
         <v>66</v>
       </c>
@@ -1072,9 +1102,15 @@
       <c r="E9" s="1">
         <v>37</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="3">
+        <v>45320</v>
+      </c>
+      <c r="G9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1">
         <v>67</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:H9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>7400</v>
+        <v>8400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1140,9 +1140,15 @@
       <c r="E10" s="1">
         <v>38</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="3">
+        <v>45321</v>
+      </c>
+      <c r="G10" s="4">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1">
         <v>68</v>
       </c>
@@ -1172,9 +1178,15 @@
       <c r="E11" s="1">
         <v>39</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="3">
+        <v>45322</v>
+      </c>
+      <c r="G11" s="4">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1">
         <v>69</v>
       </c>
@@ -1204,9 +1216,15 @@
       <c r="E12" s="1">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="3">
+        <v>45323</v>
+      </c>
+      <c r="G12" s="4">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1">
         <v>70</v>
       </c>
@@ -1236,9 +1254,15 @@
       <c r="E13" s="1">
         <v>41</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="3">
+        <v>45324</v>
+      </c>
+      <c r="G13" s="4">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1">
         <v>71</v>
       </c>
@@ -1268,9 +1292,15 @@
       <c r="E14" s="1">
         <v>42</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="3">
+        <v>45325</v>
+      </c>
+      <c r="G14" s="4">
+        <v>200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1">
         <v>72</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9:H14"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>8400</v>
+        <v>9200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1330,9 +1330,15 @@
       <c r="E15" s="1">
         <v>43</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="3">
+        <v>45326</v>
+      </c>
+      <c r="G15" s="4">
+        <v>200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1">
         <v>73</v>
       </c>
@@ -1362,9 +1368,15 @@
       <c r="E16" s="1">
         <v>44</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="3">
+        <v>45327</v>
+      </c>
+      <c r="G16" s="4">
+        <v>200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1">
         <v>74</v>
       </c>
@@ -1394,9 +1406,15 @@
       <c r="E17" s="1">
         <v>45</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="3">
+        <v>45329</v>
+      </c>
+      <c r="G17" s="4">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1">
         <v>75</v>
       </c>
@@ -1426,9 +1444,15 @@
       <c r="E18" s="1">
         <v>46</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="3">
+        <v>45330</v>
+      </c>
+      <c r="G18" s="4">
+        <v>200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1">
         <v>76</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17:H18"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1482,9 +1482,15 @@
       <c r="E19" s="1">
         <v>47</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="3">
+        <v>45331</v>
+      </c>
+      <c r="G19" s="4">
+        <v>200</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1">
         <v>77</v>
       </c>
@@ -1514,9 +1520,15 @@
       <c r="E20" s="1">
         <v>48</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="3">
+        <v>45332</v>
+      </c>
+      <c r="G20" s="4">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1">
         <v>78</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19:H20"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1558,9 +1558,15 @@
       <c r="E21" s="1">
         <v>49</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="3">
+        <v>45333</v>
+      </c>
+      <c r="G21" s="4">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1">
         <v>79</v>
       </c>
@@ -1590,9 +1596,15 @@
       <c r="E22" s="1">
         <v>50</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="3">
+        <v>45334</v>
+      </c>
+      <c r="G22" s="4">
+        <v>200</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1">
         <v>80</v>
       </c>
@@ -1622,9 +1634,15 @@
       <c r="E23" s="1">
         <v>51</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="3">
+        <v>45336</v>
+      </c>
+      <c r="G23" s="4">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1">
         <v>81</v>
       </c>
@@ -1654,9 +1672,15 @@
       <c r="E24" s="1">
         <v>52</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="3">
+        <v>45336</v>
+      </c>
+      <c r="G24" s="4">
+        <v>200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1">
         <v>82</v>
       </c>
@@ -1686,9 +1710,15 @@
       <c r="E25" s="1">
         <v>53</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="3">
+        <v>45339</v>
+      </c>
+      <c r="G25" s="4">
+        <v>200</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1">
         <v>83</v>
       </c>
@@ -1718,9 +1748,6 @@
       <c r="E26" s="1">
         <v>54</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>84</v>
       </c>

--- a/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
+++ b/LoanOfficer-A/2023/12 Thongram Rambhabati.xlsx
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25:H25"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>10600</v>
+        <v>11400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1748,6 +1748,15 @@
       <c r="E26" s="1">
         <v>54</v>
       </c>
+      <c r="F26" s="3">
+        <v>45340</v>
+      </c>
+      <c r="G26" s="4">
+        <v>200</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1">
         <v>84</v>
       </c>
@@ -1777,9 +1786,15 @@
       <c r="E27" s="1">
         <v>55</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="3">
+        <v>45341</v>
+      </c>
+      <c r="G27" s="4">
+        <v>200</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1">
         <v>85</v>
       </c>
@@ -1809,9 +1824,15 @@
       <c r="E28" s="1">
         <v>56</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="3">
+        <v>45343</v>
+      </c>
+      <c r="G28" s="4">
+        <v>200</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1">
         <v>86</v>
       </c>
@@ -1841,9 +1862,15 @@
       <c r="E29" s="1">
         <v>57</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="3">
+        <v>45344</v>
+      </c>
+      <c r="G29" s="4">
+        <v>200</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1">
         <v>87</v>
       </c>
